--- a/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
+++ b/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\graphExample\forms\graphExample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="5260" windowWidth="31500" windowHeight="18900"/>
+    <workbookView xWindow="4778" yWindow="5263" windowWidth="31497" windowHeight="18903" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -59,9 +64,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -187,6 +189,9 @@
   </si>
   <si>
     <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -555,6 +560,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -849,29 +857,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -880,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -889,78 +897,78 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
-      <c r="D4" t="s">
+    <row r="5" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.5" customHeight="1">
+    <row r="6" spans="1:16" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="D6" s="6"/>
@@ -986,19 +994,19 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" customWidth="1"/>
+    <col min="1" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="87.375" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" customHeight="1">
+    <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1007,88 +1015,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1">
+    <row r="2" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.25" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1106,121 +1114,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+    <row r="12" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+    <row r="14" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+    <row r="15" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+    <row r="19" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+    <row r="20" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+    <row r="21" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+    <row r="25" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+    <row r="26" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+    <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
   </sheetData>

--- a/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
+++ b/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>comments</t>
   </si>
@@ -43,9 +43,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
     <t>uri</t>
   </si>
   <si>
@@ -70,28 +67,16 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
     <t>query_name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>values_list</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
   </si>
   <si>
     <t>_.chain(context).pluck('region').uniq().map(function(region){
@@ -114,21 +99,6 @@
     <t>csv</t>
   </si>
   <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.video</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>templatePath</t>
-  </si>
-  <si>
     <t>graphExample</t>
   </si>
   <si>
@@ -192,12 +162,18 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -611,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,9 +620,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,6 +672,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -855,31 +865,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -888,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -897,78 +906,54 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="D6" s="6"/>
@@ -1003,100 +988,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1115,37 +1100,38 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>20130408</v>
@@ -1153,15 +1139,15 @@
     </row>
     <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
+++ b/app/config/tables/graphExample/forms/graphExample/graphExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4778" yWindow="5263" windowWidth="31497" windowHeight="18903" activeTab="2"/>
+    <workbookView xWindow="4778" yWindow="5263" windowWidth="31497" windowHeight="18903" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -79,20 +79,6 @@
     <t>values_list</t>
   </si>
   <si>
-    <t>_.chain(context).pluck('region').uniq().map(function(region){
-return {name:region, label:region, data_value:region, display:{text:region}};
-}).value()</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-place.name = place.country;
-place.label = place.country;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
-})</t>
-  </si>
-  <si>
     <t>query_type</t>
   </si>
   <si>
@@ -168,6 +154,16 @@
   </si>
   <si>
     <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('region').uniq().map(function(region){
+return { data_value:region, display: {title: {text: region} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { data_value: place.country, region: place.region, display: {title: {text: place.country} } };
+})</t>
   </si>
 </sst>
 </file>
@@ -906,51 +902,51 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -975,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -991,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1005,13 +1001,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -1019,69 +1015,69 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1117,15 +1113,15 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1142,12 +1138,12 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
